--- a/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T16:40:31+00:00</t>
+    <t>2025-05-05T07:27:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:27:11+00:00</t>
+    <t>2025-05-05T07:53:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:53:58+00:00</t>
+    <t>2025-05-05T08:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Modèle logique d'un auteur d'un documeny
+    <t xml:space="preserve">Modèle logique d'un auteur d'un document
 Cette métadonnée représente les personnes physiques et/ou les systèmes (dispositifs, automates, services numériques référencés…) auteurs d’un document. 
 L’auteur peut être : 
 -  Un professionnel (personne physique) via son logiciel de professionnel, 

--- a/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="105">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:00:51+00:00</t>
+    <t>2025-05-05T11:54:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -278,20 +278,17 @@
     <t>Author.institution</t>
   </si>
   <si>
-    <t>AuthorDocumentEntry.person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPS|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPatient|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSNR|https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSystem)
-</t>
+    <t>AuthorDocumentEntry.person[x]</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPS
+https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorPatienthttps://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSNRhttps://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/ActorSystem</t>
   </si>
   <si>
     <t xml:space="preserve">Cet attribut représente l’auteur (humain ou système) ayant contribué au document. Pour les documents d’expression personnelle du patient, cette métadonnée fait référence au patient.  </t>
   </si>
   <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>Author.person</t>
+    <t>Author.person[x]</t>
   </si>
   <si>
     <t>AuthorDocumentEntry.role</t>
@@ -664,7 +661,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="189.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1055,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1106,7 +1103,7 @@
         <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
@@ -1129,10 +1126,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1155,13 +1152,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1188,29 +1185,29 @@
         <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
@@ -1225,18 +1222,18 @@
         <v>73</v>
       </c>
       <c r="AK5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AL5" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1259,13 +1256,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1292,29 +1289,29 @@
         <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>74</v>
@@ -1329,10 +1326,10 @@
         <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T11:54:16+00:00</t>
+    <t>2025-05-05T14:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -304,7 +304,7 @@
     <t>**Author Role**</t>
   </si>
   <si>
-    <t>required</t>
+    <t>preferred</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J47-FunctionCode-CISIS/FHIR/JDV-J47-FunctionCode-CISIS</t>
@@ -328,7 +328,7 @@
     <t>**AutorSpecialty**</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J56-AuthorSpecialty-DMP/FHIR/JDV-J56-AuthorSpecialty-DMP</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J01-XdsAuthorSpecialty-CISIS/FHIR/JDV-J01-XdsAuthorSpecialty-CISIS</t>
   </si>
   <si>
     <t>Author.specialty</t>
@@ -676,7 +676,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="77.0" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="83.80078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:17:01+00:00</t>
+    <t>2025-05-05T14:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:44:38+00:00</t>
+    <t>2025-05-05T16:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T16:33:44+00:00</t>
+    <t>2025-05-06T07:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:21:29+00:00</t>
+    <t>2025-05-06T07:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:28:27+00:00</t>
+    <t>2025-05-06T07:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:38:42+00:00</t>
+    <t>2025-05-06T13:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorDocumentEntry.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T13:57:20+00:00</t>
+    <t>2025-05-19T16:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
